--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -195,19 +195,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +498,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -568,7 +568,7 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1">
         <v>0.8125</v>
       </c>
@@ -598,13 +598,21 @@
       <c r="C6" s="1">
         <v>0.6875</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="10"/>
+      <c r="E6" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="H6" s="9">
+        <v>8.5</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="8"/>
       <c r="K6" s="1"/>
@@ -616,11 +624,15 @@
       <c r="C7" s="1">
         <v>0.8125</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8"/>
       <c r="K7" s="1"/>
@@ -653,7 +665,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
@@ -661,7 +673,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="6"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="1"/>
       <c r="J11" s="6"/>
       <c r="K11" s="1"/>
@@ -669,13 +681,13 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="1"/>
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
@@ -687,9 +699,9 @@
         <v>2</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="1"/>
       <c r="H14" s="8"/>
       <c r="I14" s="1"/>
@@ -701,9 +713,9 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
@@ -738,7 +750,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -754,7 +766,7 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
@@ -823,15 +835,15 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="1"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
@@ -839,13 +851,13 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
@@ -857,33 +869,75 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="1"/>
       <c r="J30" s="8"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="1"/>
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
@@ -898,48 +952,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -23,6 +23,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Anna Sharuntsova.EXT</author>
+  </authors>
+  <commentList>
+    <comment ref="M6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+переработка 3,5 часа за пропущенную неделю</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
@@ -39,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +119,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -195,19 +242,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,11 +541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +579,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -568,7 +615,7 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1">
         <v>0.8125</v>
       </c>
@@ -598,44 +645,58 @@
       <c r="C6" s="1">
         <v>0.6875</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>0.625</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>0.46875</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
         <v>8.5</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
+      <c r="I6" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="J6" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="L6" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="M6" s="7">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="1">
         <v>0.8125</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="7"/>
     </row>
@@ -665,7 +726,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
@@ -673,7 +734,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="6"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="1"/>
       <c r="J11" s="6"/>
       <c r="K11" s="1"/>
@@ -681,13 +742,13 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1"/>
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
@@ -699,9 +760,9 @@
         <v>2</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="1"/>
       <c r="H14" s="8"/>
       <c r="I14" s="1"/>
@@ -713,9 +774,9 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1"/>
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
@@ -750,7 +811,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -766,7 +827,7 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
@@ -835,15 +896,15 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="1"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
@@ -851,13 +912,13 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
@@ -869,33 +930,75 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="1"/>
       <c r="J30" s="8"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="1"/>
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="9"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:B23"/>
@@ -910,50 +1013,9 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -545,7 +545,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M7"/>
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,27 +729,51 @@
       <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="6"/>
+      <c r="C11" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H11" s="11">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="6"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
       <c r="L12" s="6"/>
@@ -759,8 +783,12 @@
       <c r="B14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3.5</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
@@ -773,7 +801,9 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" s="10"/>

--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -242,19 +242,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -545,7 +545,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="J14" sqref="J14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -615,7 +615,7 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1">
         <v>0.8125</v>
       </c>
@@ -645,19 +645,19 @@
       <c r="C6" s="1">
         <v>0.6875</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>0.625</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>0.46875</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>8.5</v>
       </c>
       <c r="I6" s="1">
@@ -681,15 +681,15 @@
       <c r="C7" s="1">
         <v>0.8125</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -726,7 +726,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -744,7 +744,7 @@
       <c r="G11" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="13">
         <v>8</v>
       </c>
       <c r="I11" s="1">
@@ -758,7 +758,7 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="G12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -786,15 +786,27 @@
       <c r="C14" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>3.5</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="8"/>
+      <c r="E14" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F14" s="9">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H14" s="8">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="J14" s="8">
+        <v>4.5</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="8"/>
       <c r="M14" s="7"/>
@@ -804,12 +816,18 @@
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="1"/>
       <c r="L15" s="8"/>
@@ -841,7 +859,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -857,7 +875,7 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
@@ -926,15 +944,15 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="1"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
@@ -942,13 +960,13 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
@@ -960,33 +978,75 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="1"/>
       <c r="J30" s="8"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="1"/>
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
@@ -1001,48 +1061,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -50,6 +50,30 @@
           </rPr>
           <t xml:space="preserve">
 переработка 3,5 часа за пропущенную неделю</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2 часа переработки за пропущенную неделю</t>
         </r>
       </text>
     </comment>
@@ -545,7 +569,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J15"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,9 +831,15 @@
       <c r="J14" s="8">
         <v>4.5</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
+      <c r="K14" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="L14" s="8">
+        <v>8</v>
+      </c>
+      <c r="M14" s="7">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
@@ -829,7 +859,9 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>0.80208333333333337</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="7"/>
     </row>

--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,29 +894,53 @@
       <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H19" s="6">
+        <v>8</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="6"/>
+      <c r="K19" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="L19" s="6">
+        <v>5</v>
+      </c>
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>0.80208333333333337</v>
+      </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="1"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
     </row>
@@ -924,8 +948,12 @@
       <c r="B22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D22" s="8">
+        <v>3</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="8"/>
       <c r="G22" s="1"/>
@@ -938,7 +966,9 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>0.80208333333333337</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="1"/>
       <c r="F23" s="8"/>

--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -74,6 +74,30 @@
           </rPr>
           <t xml:space="preserve">
 2 часа переработки за пропущенную неделю</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+минус час на шлянки-гулянки</t>
         </r>
       </text>
     </comment>
@@ -266,19 +290,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +593,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="M22" sqref="M22:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +627,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -639,7 +663,7 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1">
         <v>0.8125</v>
       </c>
@@ -669,19 +693,19 @@
       <c r="C6" s="1">
         <v>0.6875</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>0.625</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>0.46875</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
         <v>8.5</v>
       </c>
       <c r="I6" s="1">
@@ -705,15 +729,15 @@
       <c r="C7" s="1">
         <v>0.8125</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -750,7 +774,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -768,7 +792,7 @@
       <c r="G11" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <v>8</v>
       </c>
       <c r="I11" s="1">
@@ -782,7 +806,7 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -794,7 +818,7 @@
       <c r="G12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -810,13 +834,13 @@
       <c r="C14" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>3.5</v>
       </c>
       <c r="E14" s="1">
         <v>0.625</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>5</v>
       </c>
       <c r="G14" s="1">
@@ -846,11 +870,11 @@
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -891,7 +915,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -923,7 +947,7 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -954,10 +978,18 @@
       <c r="D22" s="8">
         <v>3</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="8"/>
+      <c r="E22" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F22" s="8">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="H22" s="8">
+        <v>7</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="8"/>
       <c r="K22" s="5"/>
@@ -970,9 +1002,13 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>0.8125</v>
+      </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>0.80208333333333337</v>
+      </c>
       <c r="H23" s="8"/>
       <c r="I23" s="1"/>
       <c r="J23" s="8"/>
@@ -1006,15 +1042,15 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="1"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
@@ -1022,13 +1058,13 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
@@ -1040,33 +1076,75 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="1"/>
       <c r="J30" s="8"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="1"/>
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="9"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:B23"/>
@@ -1081,48 +1159,6 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -593,7 +593,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:M23"/>
+      <selection activeCell="J22" sqref="J22:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,8 +936,12 @@
       <c r="H19" s="6">
         <v>8</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="6"/>
+      <c r="I19" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J19" s="6">
+        <v>8</v>
+      </c>
       <c r="K19" s="1">
         <v>0.625</v>
       </c>
@@ -960,7 +964,9 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="1">
         <v>0.83333333333333337</v>
@@ -990,8 +996,12 @@
       <c r="H22" s="8">
         <v>7</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="8"/>
+      <c r="I22" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J22" s="8">
+        <v>7</v>
+      </c>
       <c r="K22" s="5"/>
       <c r="L22" s="8"/>
       <c r="M22" s="7"/>
@@ -1010,7 +1020,9 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="J23" s="8"/>
       <c r="K23" s="1"/>
       <c r="L23" s="8"/>

--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -98,6 +98,54 @@
           </rPr>
           <t xml:space="preserve">
 минус час на шлянки-гулянки</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+c вычетом на посиделки</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+6 часов переработки за пропущенную неделю</t>
         </r>
       </text>
     </comment>
@@ -593,7 +641,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:J23"/>
+      <selection activeCell="F27" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,9 +1050,15 @@
       <c r="J22" s="8">
         <v>7</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
+      <c r="K22" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L22" s="8">
+        <v>6</v>
+      </c>
+      <c r="M22" s="7">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -1024,7 +1078,9 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="J23" s="8"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
     </row>
@@ -1057,10 +1113,18 @@
       <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="12"/>
+      <c r="C27" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F27" s="12">
+        <v>5</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="12"/>
       <c r="I27" s="1"/>
@@ -1071,9 +1135,13 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F28" s="13"/>
       <c r="G28" s="1"/>
       <c r="H28" s="13"/>
@@ -1087,8 +1155,12 @@
       <c r="B30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D30" s="10">
+        <v>5</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
@@ -1101,7 +1173,9 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="8"/>

--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -641,7 +641,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F28"/>
+      <selection activeCell="F30" sqref="F30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,8 +1161,12 @@
       <c r="D30" s="10">
         <v>5</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="8"/>
+      <c r="E30" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F30" s="8">
+        <v>4</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="10"/>
       <c r="I30" s="1"/>
@@ -1177,7 +1181,9 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="1"/>
       <c r="H31" s="10"/>

--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -146,6 +146,30 @@
           </rPr>
           <t xml:space="preserve">
 6 часов переработки за пропущенную неделю</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+минус полтора часа на посиделки</t>
         </r>
       </text>
     </comment>
@@ -338,19 +362,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -641,7 +665,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F31"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +699,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -711,7 +735,7 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1">
         <v>0.8125</v>
       </c>
@@ -741,19 +765,19 @@
       <c r="C6" s="1">
         <v>0.6875</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>0.625</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>0.46875</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>8.5</v>
       </c>
       <c r="I6" s="1">
@@ -777,15 +801,15 @@
       <c r="C7" s="1">
         <v>0.8125</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -822,7 +846,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -840,7 +864,7 @@
       <c r="G11" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="13">
         <v>8</v>
       </c>
       <c r="I11" s="1">
@@ -854,7 +878,7 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -866,7 +890,7 @@
       <c r="G12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -882,13 +906,13 @@
       <c r="C14" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>3.5</v>
       </c>
       <c r="E14" s="1">
         <v>0.625</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>5</v>
       </c>
       <c r="G14" s="1">
@@ -918,11 +942,11 @@
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -963,7 +987,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -999,7 +1023,7 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -1110,7 +1134,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1">
@@ -1122,19 +1146,27 @@
       <c r="E27" s="1">
         <v>0.625</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>5</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="6"/>
+      <c r="G27" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H27" s="11">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J27" s="6">
+        <v>5</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -1142,10 +1174,14 @@
       <c r="E28" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="1"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="1">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
       <c r="L28" s="6"/>
@@ -1158,7 +1194,7 @@
       <c r="C30" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>5</v>
       </c>
       <c r="E30" s="1">
@@ -1167,12 +1203,20 @@
       <c r="F30" s="8">
         <v>4</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="8"/>
+      <c r="G30" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H30" s="9">
+        <v>6</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="J30" s="8">
+        <v>7</v>
+      </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -1180,21 +1224,67 @@
       <c r="C31" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1">
         <v>0.79166666666666663</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="1"/>
+      <c r="G31" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="1">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
@@ -1209,48 +1299,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/01.04-26.04.xlsx
+++ b/01.04-26.04.xlsx
@@ -170,6 +170,30 @@
           </rPr>
           <t xml:space="preserve">
 минус полтора часа на посиделки</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+3 часа переработки за пропущенную неделю</t>
         </r>
       </text>
     </comment>
@@ -665,7 +689,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1185,9 @@
       <c r="J27" s="6">
         <v>5</v>
       </c>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1">
+        <v>0.625</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
     </row>
@@ -1183,7 +1209,9 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
     </row>
@@ -1215,9 +1243,15 @@
       <c r="J30" s="8">
         <v>7</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="7"/>
+      <c r="K30" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="L30" s="9">
+        <v>6</v>
+      </c>
+      <c r="M30" s="7">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
@@ -1237,7 +1271,9 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="J31" s="8"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1">
+        <v>0.875</v>
+      </c>
       <c r="L31" s="9"/>
       <c r="M31" s="7"/>
     </row>
